--- a/Lådor_Kvartspall.xlsx
+++ b/Lådor_Kvartspall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexjette/Desktop/Exjobb Offline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontusmaniette/Documents/GitHub/Exjobb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C95BE-C87A-A341-9525-C328724BB8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587C1E4-3355-494C-8BBB-4F945C58B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{50BEE106-7A1D-7B49-BAAE-F4232B938F53}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{50BEE106-7A1D-7B49-BAAE-F4232B938F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,16 +36,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Låda</t>
+    <t>height</t>
   </si>
   <si>
-    <t>Höjd</t>
+    <t>width</t>
   </si>
   <si>
-    <t>Bredd</t>
+    <t>length</t>
   </si>
   <si>
-    <t>Längd</t>
+    <t>Boxes</t>
   </si>
 </sst>
 </file>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,22 +399,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36820A67-1FDA-B246-B716-89BC3A2C8EF7}">
   <dimension ref="A1:D2801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/Lådor_Kvartspall.xlsx
+++ b/Lådor_Kvartspall.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexjette/Desktop/Exjobb Offline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexjette/Documents/GitHub/Exjobb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C95BE-C87A-A341-9525-C328724BB8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09F348-2474-8242-A658-576D5AC65C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{50BEE106-7A1D-7B49-BAAE-F4232B938F53}"/>
+    <workbookView xWindow="11720" yWindow="1220" windowWidth="16820" windowHeight="17260" xr2:uid="{50BEE106-7A1D-7B49-BAAE-F4232B938F53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Boxes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,16 +37,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Låda</t>
+    <t>Boxes</t>
   </si>
   <si>
-    <t>Höjd</t>
+    <t>height</t>
   </si>
   <si>
-    <t>Bredd</t>
+    <t>width</t>
   </si>
   <si>
-    <t>Längd</t>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36820A67-1FDA-B246-B716-89BC3A2C8EF7}">
   <dimension ref="A1:D2801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
